--- a/TestData/LV_TS02_PostUpdatingDFFFieldsOfOpportunity.xlsx
+++ b/TestData/LV_TS02_PostUpdatingDFFFieldsOfOpportunity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B99B9EF-A1B6-4549-B52F-FE7126682874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC44481-0696-4CE1-BEB7-6BD74C896A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="708" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -243,9 +243,6 @@
     <t>DRC - Ad Valorem Services</t>
   </si>
   <si>
-    <t>Debt Capital Markets</t>
-  </si>
-  <si>
     <t>IG</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>Buyside</t>
   </si>
   <si>
-    <t>Bank</t>
-  </si>
-  <si>
     <t>caoUser</t>
   </si>
   <si>
@@ -360,9 +354,6 @@
     <t>Job Types</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
     <t>James Craven</t>
   </si>
   <si>
@@ -391,6 +382,15 @@
   </si>
   <si>
     <t>BUS - Business Services</t>
+  </si>
+  <si>
+    <t>Debt Financing</t>
+  </si>
+  <si>
+    <t>Education &amp; Training</t>
+  </si>
+  <si>
+    <t>Government</t>
   </si>
 </sst>
 </file>
@@ -762,21 +762,21 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -809,12 +809,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -837,17 +837,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -1017,16 +1017,16 @@
         <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R2" t="s">
         <v>24</v>
@@ -1035,7 +1035,7 @@
         <v>24</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1056,10 +1056,10 @@
         <v>39</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1106,13 +1106,13 @@
         <v>59</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R3" t="s">
         <v>24</v>
@@ -1121,7 +1121,7 @@
         <v>24</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1142,10 +1142,10 @@
         <v>39</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1192,13 +1192,13 @@
         <v>62</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R4" t="s">
         <v>24</v>
@@ -1207,7 +1207,7 @@
         <v>24</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1228,10 +1228,10 @@
         <v>39</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,15 +1256,15 @@
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1276,7 +1276,7 @@
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1287,19 +1287,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -1308,7 +1308,7 @@
         <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1334,87 +1334,87 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -1429,88 +1429,88 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1565,13 +1565,13 @@
         <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1597,16 +1597,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
